--- a/results/impressions/graphs.xlsx
+++ b/results/impressions/graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppune\Documents\GitHub\impressions\results\impressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0CB6B3-3371-4950-9D25-9A52926D5E22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5BF548-C029-4D09-B971-C74212BA7ED9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -1362,7 +1362,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1402,11 +1402,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Directory</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> by Subdirectory Count</a:t>
+              <a:t>Directory by Subdirectory Count</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1835,94 +1831,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>72.352773013150369</c:v>
+                  <c:v>72.352773010000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.778158947970269</c:v>
+                  <c:v>89.130931957970276</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8885077186963981</c:v>
+                  <c:v>94.019439676666678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8925100057175528</c:v>
+                  <c:v>95.911949682384233</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87478559176672377</c:v>
+                  <c:v>96.786735274150956</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60606060606060608</c:v>
+                  <c:v>97.392795880211565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52315608919382506</c:v>
+                  <c:v>97.915951969405384</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39165237278444825</c:v>
+                  <c:v>98.307604342189833</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24299599771297883</c:v>
+                  <c:v>98.550600339902815</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26014865637507145</c:v>
+                  <c:v>98.81074899627788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1400800457404231</c:v>
+                  <c:v>98.950829042018299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.10005717552887365</c:v>
+                  <c:v>99.050886217547173</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.11720983419096626</c:v>
+                  <c:v>99.168096051738146</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.10291595197255575</c:v>
+                  <c:v>99.271012003710709</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.7186963979416809E-2</c:v>
+                  <c:v>99.348198967690124</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.5763293310463118E-2</c:v>
+                  <c:v>99.433962261000588</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13722126929674097</c:v>
+                  <c:v>99.571183530297333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1457975986277875E-2</c:v>
+                  <c:v>99.622641506283614</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.5728987993138937E-2</c:v>
+                  <c:v>99.648370494276747</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2870211549456832E-2</c:v>
+                  <c:v>99.671240705826207</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5740423098913664E-2</c:v>
+                  <c:v>99.716981128925127</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7175528873642079E-2</c:v>
+                  <c:v>99.77415665779877</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.2881646655231559E-2</c:v>
+                  <c:v>99.817038304454002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.7175528873642079E-2</c:v>
+                  <c:v>99.874213833327644</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.5763293310463107E-3</c:v>
+                  <c:v>99.882790162658694</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.0022870211549461E-2</c:v>
+                  <c:v>99.922813032870238</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2870211549456832E-2</c:v>
+                  <c:v>99.945683244419698</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.2870211549456832E-2</c:v>
+                  <c:v>99.968553455969158</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1435105774728416E-2</c:v>
+                  <c:v>99.97998856174388</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.001143510577473E-2</c:v>
+                  <c:v>99.999999996849652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1930,7 +1926,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D8A1-4D73-88F4-2A1B12BBE9D7}"/>
+              <c16:uniqueId val="{00000001-9591-4403-AB67-3C4DFF224BD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1989,13 +1985,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>Count</a:t>
+                  <a:t>Count of Subdirectories</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> of Subdirectories</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2114,13 +2105,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>Cumulative</a:t>
+                  <a:t>Cumulative % of Directories</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> % of Directories</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2204,7 +2190,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2273,7 +2259,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2978,7 +2964,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4697,15 +4683,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
+      <xdr:colOff>157161</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>185736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4861,10 +4847,10 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="Column2" totalsRowFunction="sum" queryTableFieldId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Column3" totalsRowFunction="sum" queryTableFieldId="4" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Column3" totalsRowFunction="sum" queryTableFieldId="4" dataDxfId="5">
       <calculatedColumnFormula>$B2/$B$34*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="Column4" queryTableFieldId="5" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="Column4" queryTableFieldId="5" dataDxfId="4">
       <calculatedColumnFormula>$B2/$B$34*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4878,11 +4864,11 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" uniqueName="2" name="Column2" totalsRowFunction="sum" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="3" name="Column3" totalsRowFunction="sum" queryTableFieldId="3" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="3" name="Column3" totalsRowFunction="sum" queryTableFieldId="3" dataDxfId="3">
       <calculatedColumnFormula>$B38/$B$68*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="4">
-      <calculatedColumnFormula>$B38/$B$68*100</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="0">
+      <calculatedColumnFormula>D37+C38</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4895,7 +4881,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8D02D4AB-7686-44CE-9BD9-B3E520CDAC55}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{1F4EC3ED-F8A9-4217-92DA-6568355F757E}" uniqueName="2" name="Column2" totalsRowFunction="sum" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{596D378D-BD8A-4533-A8F0-F8901F7D1B74}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{596D378D-BD8A-4533-A8F0-F8901F7D1B74}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="2">
       <calculatedColumnFormula>B2/$B$18*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4909,7 +4895,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B56BAD14-E4CF-461B-A8DE-5795F2953798}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{96E46566-6D0F-469F-B0BC-4B61031AFD25}" uniqueName="2" name="Column2" totalsRowFunction="sum" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{BF98996E-0999-4B01-90BA-484AB274BD42}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{BF98996E-0999-4B01-90BA-484AB274BD42}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="1">
       <calculatedColumnFormula>B21/$B$37*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5663,8 +5649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6235,8 +6221,7 @@
         <v>72.352773013150369</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:D67" si="4">$B38/$B$68*100</f>
-        <v>72.352773013150369</v>
+        <v>72.352773010000007</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -6251,8 +6236,8 @@
         <v>16.778158947970269</v>
       </c>
       <c r="D39">
-        <f t="shared" si="4"/>
-        <v>16.778158947970269</v>
+        <f t="shared" ref="D38:D67" si="4">D38+C39</f>
+        <v>89.130931957970276</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -6268,7 +6253,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="4"/>
-        <v>4.8885077186963981</v>
+        <v>94.019439676666678</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -6284,7 +6269,7 @@
       </c>
       <c r="D41">
         <f t="shared" si="4"/>
-        <v>1.8925100057175528</v>
+        <v>95.911949682384233</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -6300,7 +6285,7 @@
       </c>
       <c r="D42">
         <f t="shared" si="4"/>
-        <v>0.87478559176672377</v>
+        <v>96.786735274150956</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -6316,7 +6301,7 @@
       </c>
       <c r="D43">
         <f t="shared" si="4"/>
-        <v>0.60606060606060608</v>
+        <v>97.392795880211565</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -6332,7 +6317,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="4"/>
-        <v>0.52315608919382506</v>
+        <v>97.915951969405384</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -6348,7 +6333,7 @@
       </c>
       <c r="D45">
         <f t="shared" si="4"/>
-        <v>0.39165237278444825</v>
+        <v>98.307604342189833</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -6364,7 +6349,7 @@
       </c>
       <c r="D46">
         <f t="shared" si="4"/>
-        <v>0.24299599771297883</v>
+        <v>98.550600339902815</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -6380,7 +6365,7 @@
       </c>
       <c r="D47">
         <f t="shared" si="4"/>
-        <v>0.26014865637507145</v>
+        <v>98.81074899627788</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -6396,7 +6381,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="4"/>
-        <v>0.1400800457404231</v>
+        <v>98.950829042018299</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -6412,7 +6397,7 @@
       </c>
       <c r="D49">
         <f t="shared" si="4"/>
-        <v>0.10005717552887365</v>
+        <v>99.050886217547173</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -6428,7 +6413,7 @@
       </c>
       <c r="D50">
         <f t="shared" si="4"/>
-        <v>0.11720983419096626</v>
+        <v>99.168096051738146</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -6444,7 +6429,7 @@
       </c>
       <c r="D51">
         <f t="shared" si="4"/>
-        <v>0.10291595197255575</v>
+        <v>99.271012003710709</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6460,7 +6445,7 @@
       </c>
       <c r="D52">
         <f t="shared" si="4"/>
-        <v>7.7186963979416809E-2</v>
+        <v>99.348198967690124</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -6476,7 +6461,7 @@
       </c>
       <c r="D53">
         <f t="shared" si="4"/>
-        <v>8.5763293310463118E-2</v>
+        <v>99.433962261000588</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -6492,7 +6477,7 @@
       </c>
       <c r="D54">
         <f t="shared" si="4"/>
-        <v>0.13722126929674097</v>
+        <v>99.571183530297333</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -6508,7 +6493,7 @@
       </c>
       <c r="D55">
         <f t="shared" si="4"/>
-        <v>5.1457975986277875E-2</v>
+        <v>99.622641506283614</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -6524,7 +6509,7 @@
       </c>
       <c r="D56">
         <f t="shared" si="4"/>
-        <v>2.5728987993138937E-2</v>
+        <v>99.648370494276747</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -6540,7 +6525,7 @@
       </c>
       <c r="D57">
         <f t="shared" si="4"/>
-        <v>2.2870211549456832E-2</v>
+        <v>99.671240705826207</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -6556,7 +6541,7 @@
       </c>
       <c r="D58">
         <f t="shared" si="4"/>
-        <v>4.5740423098913664E-2</v>
+        <v>99.716981128925127</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -6572,7 +6557,7 @@
       </c>
       <c r="D59">
         <f t="shared" si="4"/>
-        <v>5.7175528873642079E-2</v>
+        <v>99.77415665779877</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -6588,7 +6573,7 @@
       </c>
       <c r="D60">
         <f t="shared" si="4"/>
-        <v>4.2881646655231559E-2</v>
+        <v>99.817038304454002</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -6604,7 +6589,7 @@
       </c>
       <c r="D61">
         <f t="shared" si="4"/>
-        <v>5.7175528873642079E-2</v>
+        <v>99.874213833327644</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -6620,7 +6605,7 @@
       </c>
       <c r="D62">
         <f t="shared" si="4"/>
-        <v>8.5763293310463107E-3</v>
+        <v>99.882790162658694</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -6636,7 +6621,7 @@
       </c>
       <c r="D63">
         <f t="shared" si="4"/>
-        <v>4.0022870211549461E-2</v>
+        <v>99.922813032870238</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -6652,7 +6637,7 @@
       </c>
       <c r="D64">
         <f t="shared" si="4"/>
-        <v>2.2870211549456832E-2</v>
+        <v>99.945683244419698</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -6668,7 +6653,7 @@
       </c>
       <c r="D65">
         <f t="shared" si="4"/>
-        <v>2.2870211549456832E-2</v>
+        <v>99.968553455969158</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -6684,7 +6669,7 @@
       </c>
       <c r="D66">
         <f t="shared" si="4"/>
-        <v>1.1435105774728416E-2</v>
+        <v>99.97998856174388</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -6700,7 +6685,7 @@
       </c>
       <c r="D67">
         <f t="shared" si="4"/>
-        <v>2.001143510577473E-2</v>
+        <v>99.999999996849652</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -6727,7 +6712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
@@ -7170,7 +7155,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50AF153-264D-4278-B22B-9F3F5B7861F2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
